--- a/data/trans_dic/P43_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P43_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con grado de capacidad laboral autopercibida &lt;=7</t>
+          <t>Población con grado de capacidad laboral autopercibida &lt;=7 (tasa de respuesta: 99,49%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,49%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>23,09%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>31,46%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>15,36%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>14,17%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>5,31%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>3,57%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>3,79%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>2,67%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>6,08%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>4,98%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>8,24%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,53; 23,59</t>
+          <t>0,8; 7,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,42; 26,8</t>
+          <t>1,44; 7,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,42; 20,96</t>
+          <t>0,92; 7,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,52; 20,71</t>
+          <t>0,8; 9,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,77; 42,47</t>
+          <t>0,79; 7,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,55; 28,79</t>
+          <t>5,77; 18,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,07; 20,05</t>
+          <t>1,93; 9,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,84; 49,4</t>
+          <t>1,6; 6,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,16; 26,78</t>
+          <t>0,89; 6,32</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,68; 22,65</t>
+          <t>4,1; 15,9</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,11; 16,72</t>
+          <t>3,43; 14,14</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,57; 27,17</t>
+          <t>2,23; 10,06</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,79; 6,33</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>2,0; 6,25</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1,34; 5,37</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>3,58; 10,67</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>2,6; 8,27</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>4,95; 12,18</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,35%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,39%</t>
+          <t>9,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>11,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>13,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,57%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>13,76%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>11,35%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>10,78%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>7,22%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>9,47%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>10,27%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>11,99%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>8,13%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>9,88%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,94; 16,76</t>
+          <t>3,39; 10,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,51; 18,79</t>
+          <t>5,83; 13,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,22; 25,32</t>
+          <t>7,01; 20,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,01; 21,79</t>
+          <t>6,54; 27,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,19; 22,1</t>
+          <t>4,97; 15,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,47; 21,88</t>
+          <t>4,2; 15,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,87; 19,55</t>
+          <t>4,6; 13,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,75; 18,8</t>
+          <t>6,21; 13,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,36; 16,06</t>
+          <t>5,68; 13,15</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,68; 17,33</t>
+          <t>5,79; 16,65</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,73; 20,95</t>
+          <t>3,58; 11,98</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,0; 17,71</t>
+          <t>6,72; 16,9</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>4,56; 10,44</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>6,7; 12,69</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>6,99; 15,41</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>7,64; 21,2</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>5,41; 12,2</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>6,64; 14,44</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>11,38%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>16,87%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,53%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>12,16%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,15%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>10,03%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>13,83%</t>
+          <t>12,5%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>9,53%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>8,31%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>8,8%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>10,69%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>10,22%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>9,98%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,61; 15,98</t>
+          <t>5,13; 11,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,46; 15,68</t>
+          <t>5,46; 13,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,52; 15,17</t>
+          <t>6,18; 13,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,16; 19,73</t>
+          <t>7,56; 16,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,88; 23,61</t>
+          <t>6,48; 16,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,1; 17,23</t>
+          <t>4,37; 14,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,75; 16,44</t>
+          <t>7,73; 14,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,2; 22,08</t>
+          <t>5,83; 11,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,11; 16,85</t>
+          <t>6,19; 11,64</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,47; 14,54</t>
+          <t>7,05; 14,01</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,34; 14,25</t>
+          <t>6,25; 14,45</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,42; 18,45</t>
+          <t>8,41; 16,97</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>7,36; 12,43</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>6,32; 10,68</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>6,83; 11,77</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>8,12; 13,99</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>7,61; 13,69</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>7,37; 13,82</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>14,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,11%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,22%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,96%</t>
+          <t>12,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>22,88%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>24,33%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>21,24%</t>
+          <t>13,93%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>17,89%</t>
+          <t>16,24%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>16,15%</t>
+          <t>12,38%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>18,28%</t>
+          <t>10,97%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>12,91%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>13,08%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>11,74%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>15,37%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>12,29%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>11,9%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,93; 26,0</t>
+          <t>10,19; 21,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,46; 18,51</t>
+          <t>8,91; 16,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,99; 14,06</t>
+          <t>5,74; 12,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,73; 23,82</t>
+          <t>9,47; 23,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,51; 27,7</t>
+          <t>8,01; 17,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,2; 28,51</t>
+          <t>8,36; 18,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,0; 30,63</t>
+          <t>7,78; 15,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,55; 28,02</t>
+          <t>10,38; 17,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,21; 24,16</t>
+          <t>11,2; 18,64</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,93; 21,74</t>
+          <t>12,56; 20,53</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,27; 19,89</t>
+          <t>8,68; 17,23</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,25; 23,29</t>
+          <t>7,39; 15,33</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>10,29; 16,93</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>10,67; 15,93</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>9,41; 14,19</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>12,02; 19,39</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>9,29; 15,64</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>8,81; 15,36</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>21,89%</t>
+          <t>9,75%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>20,12%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>24,91%</t>
+          <t>11,82%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>30,96%</t>
+          <t>12,13%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>26,84%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>29,74%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>20,92%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>25,49%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>22,67%</t>
+          <t>13,42%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>24,45%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>22,96%</t>
+          <t>8,22%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>9,24%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>9,55%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>9,59%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>12,63%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>10,43%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>9,73%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,08; 30,8</t>
+          <t>6,25; 14,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,7; 26,82</t>
+          <t>6,11; 13,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,42; 28,66</t>
+          <t>5,98; 12,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,93; 35,04</t>
+          <t>8,1; 17,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,89; 43,68</t>
+          <t>7,74; 18,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,72; 37,2</t>
+          <t>7,47; 17,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>21,39; 40,58</t>
+          <t>5,42; 13,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,8; 31,48</t>
+          <t>6,67; 13,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,78; 33,39</t>
+          <t>6,83; 14,23</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17,2; 28,31</t>
+          <t>9,01; 18,96</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>18,72; 30,58</t>
+          <t>5,61; 12,96</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,19; 30,21</t>
+          <t>4,85; 12,76</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>6,86; 12,47</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>7,34; 12,4</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>7,61; 12,36</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>9,76; 16,38</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>7,6; 14,02</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>7,28; 13,17</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1705,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1371,47 +1720,77 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>39,73%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>1,61%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1,41%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>42,78%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>49,48%</t>
-        </is>
-      </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>38,61%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>15,01%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>28,91%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>29,37%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>39,07%</t>
+          <t>1,82%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>0,23%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>0,9%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>0,87%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1,22%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>1,68%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>1,65%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 72,57</t>
+          <t>0,0; 2,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 87,93</t>
+          <t>0,0; 7,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>0,0; 5,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,42; 79,76</t>
+          <t>0,0; 5,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,17; 86,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,5; 76,82</t>
+          <t>0,42; 3,86</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,9</t>
+          <t>0,13; 3,96</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,32; 58,86</t>
+          <t>0,0; 3,43</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8,21; 69,43</t>
+          <t>0,54; 5,01</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>13,53; 68,35</t>
+          <t>0,43; 5,68</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,19</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>0,24; 2,45</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>0,24; 2,43</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>0,33; 3,48</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>0,57; 3,71</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>0,68; 4,02</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>13,75%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15,33%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>19,0%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>18,02%</t>
+          <t>8,9%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>18,19%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>15,21%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>14,52%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>16,58%</t>
+          <t>8,17%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>7,23%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>7,6%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>7,41%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>9,71%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>8,07%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>8,53%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,9; 17,32</t>
+          <t>5,65; 8,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,9; 15,81</t>
+          <t>6,12; 8,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,58; 15,09</t>
+          <t>5,74; 9,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,4; 18,62</t>
+          <t>7,79; 12,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,85; 22,86</t>
+          <t>6,67; 10,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,47; 21,04</t>
+          <t>6,98; 11,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,25; 20,41</t>
+          <t>6,01; 8,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,03; 21,85</t>
+          <t>6,65; 9,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>13,94; 18,32</t>
+          <t>6,61; 9,1</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>13,37; 16,93</t>
+          <t>8,13; 11,55</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>12,85; 16,66</t>
+          <t>6,33; 9,38</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>14,49; 18,99</t>
+          <t>6,78; 9,9</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>6,26; 8,36</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>6,71; 8,71</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>6,51; 8,65</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>8,3; 11,2</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>6,97; 9,42</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>7,37; 9,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con grado de capacidad laboral autopercibida &lt;=7 (tasa de respuesta: 99,49%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>12511</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>21163</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>13702</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>17129</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1127</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4723</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>21902</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>18192</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>13665</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>39781</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2829</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2047</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>34413</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>39355</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>27368</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>56910</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>3957</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>6770</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3955; 35408</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7549; 39897</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4711; 37173</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3669; 44658</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>331; 3052</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2515; 8161</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>9049; 42603</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>8242; 35674</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>4553; 32467</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>19548; 75895</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1283; 5289</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>858; 3878</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>17207; 61027</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>20792; 64988</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>13714; 54961</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>33477; 99764</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>2063; 6576</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>4066; 10001</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>35035</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>54805</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>68734</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>77294</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4510</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4115</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>41562</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>46819</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>45180</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>51960</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3179</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>4884</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>76597</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>101624</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>113914</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>129254</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>7689</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>8999</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>18745; 60548</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>32987; 78644</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>41648; 123363</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>37944; 161890</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2429; 7499</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1921; 7154</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>23344; 67391</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>31553; 70942</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>29262; 67720</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>28854; 82954</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1632; 5464</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3046; 7656</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>48403; 110786</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>71967; 136251</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>77548; 170939</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>82390; 228503</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>5111; 11532</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>6048; 13149</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>54316</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>55723</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>60070</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>76987</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6260</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4630</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>75117</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>59823</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>60529</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>71139</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>5224</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>6813</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>129433</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>115545</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>120599</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>148125</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>11485</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>11443</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>33986; 78408</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>37056; 88927</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>41022; 88075</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>51109; 111451</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3836; 9590</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2631; 8638</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>53699; 102718</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>41486; 82171</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>43751; 82292</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>49976; 99349</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3319; 7672</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4582; 9249</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>99874; 168707</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>87877; 148406</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>93637; 161265</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>112462; 193756</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>8550; 15378</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>8450; 15847</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>89862</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>78710</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>53992</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>94839</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>74872</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>93338</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>96941</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>105159</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>6488</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>5819</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>164734</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>172048</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>150933</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>199998</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>13603</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>13030</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>63549; 133403</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>57541; 108324</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>36489; 77666</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>61895; 151077</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>4667; 10419</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>4717; 10433</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>50766; 101183</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>69502; 118171</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>72848; 121219</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>81346; 132975</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>4548; 9035</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>3918; 8131</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>131388; 216133</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>140365; 209564</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>121027; 182435</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>156402; 252270</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>10287; 17308</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>9646; 16809</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>48044</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>45749</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>44168</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>58103</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5332</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>4973</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>44324</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>49972</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>52554</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>68224</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>4293</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>3834</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>92368</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>95721</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>96722</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>126328</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>9625</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>8807</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>30796; 70243</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>30614; 67516</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>29498; 63155</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>39835; 84213</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3403; 7934</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3276; 7498</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>27482; 70153</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>33413; 69847</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>35181; 73299</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>45805; 96421</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2710; 6263</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>2263; 5948</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>68537; 124637</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>73566; 124368</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>76708; 124631</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>97570; 163769</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>7016; 12942</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>6585; 11920</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2960</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>10932</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>754</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>10998</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>10638</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>4391</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1050</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>1137</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>2960</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>10998</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>10638</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>15323</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>1804</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>1779</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 15061</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 40477</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2624</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2379</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2904; 26736</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>888; 27396</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 23889</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>328; 3041</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>265; 3541</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>0; 14970</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>2891; 29789</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>2968; 29638</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>4160; 43772</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>612; 3994</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>732; 4339</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>244.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>242727</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>256150</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>240666</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>335284</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>25098</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>26296</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>257778</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>279142</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>279507</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>340654</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>23064</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>24533</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>500505</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>535292</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>520173</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>675938</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>48162</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>50829</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>190434; 299208</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>210586; 309472</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>196653; 308569</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>266440; 439373</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>19962; 30881</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>20623; 32500</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>213210; 310502</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>239285; 324547</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>237464; 327042</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>287773; 408660</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>18847; 27918</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>20364; 29738</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>433242; 578295</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>472238; 613195</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>456750; 606835</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>577385; 779273</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>41579; 56226</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>43940; 57978</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
